--- a/data/pca/factorExposure/factorExposure_2009-03-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-03-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.0171231692256958</v>
+        <v>0.01668040548408824</v>
       </c>
       <c r="C2">
-        <v>-0.002088162312185548</v>
+        <v>-0.001532863161402545</v>
       </c>
       <c r="D2">
-        <v>0.006825812168799523</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.007578455325382742</v>
+      </c>
+      <c r="E2">
+        <v>0.003283615823600136</v>
+      </c>
+      <c r="F2">
+        <v>0.02011753966310491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08573332617119116</v>
+        <v>0.08874116549711597</v>
       </c>
       <c r="C4">
-        <v>-0.01971334031341602</v>
+        <v>-0.01564302376590342</v>
       </c>
       <c r="D4">
-        <v>0.08248094278092508</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08543325884699907</v>
+      </c>
+      <c r="E4">
+        <v>0.03798439306406776</v>
+      </c>
+      <c r="F4">
+        <v>-0.04457878194639362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0007126624120112288</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-4.244853001362114e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0003147345384808749</v>
+      </c>
+      <c r="E5">
+        <v>-0.000119478927749018</v>
+      </c>
+      <c r="F5">
+        <v>4.830005354800961e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1602955927088729</v>
+        <v>0.1663435885413282</v>
       </c>
       <c r="C6">
-        <v>-0.03684623431160975</v>
+        <v>-0.03495655642252649</v>
       </c>
       <c r="D6">
-        <v>-0.02522253893754714</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01560149183219661</v>
+      </c>
+      <c r="E6">
+        <v>0.02122359788221719</v>
+      </c>
+      <c r="F6">
+        <v>-0.05308989418205933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05477607337437986</v>
+        <v>0.05957827389209085</v>
       </c>
       <c r="C7">
-        <v>-0.001391792527154758</v>
+        <v>0.001405223885038588</v>
       </c>
       <c r="D7">
-        <v>0.04807399463760386</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0528903169231412</v>
+      </c>
+      <c r="E7">
+        <v>0.01596480713054969</v>
+      </c>
+      <c r="F7">
+        <v>-0.05376959072127169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.0574241651698032</v>
+        <v>0.05458455068790673</v>
       </c>
       <c r="C8">
-        <v>0.009931994877233324</v>
+        <v>0.01140138974037185</v>
       </c>
       <c r="D8">
-        <v>0.02914500703309159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03137817143152725</v>
+      </c>
+      <c r="E8">
+        <v>0.0112544260324179</v>
+      </c>
+      <c r="F8">
+        <v>0.03629871780171538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06637025670804611</v>
+        <v>0.06935902500398784</v>
       </c>
       <c r="C9">
-        <v>-0.01518848102557801</v>
+        <v>-0.01121165537021589</v>
       </c>
       <c r="D9">
-        <v>0.08638201165804787</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08942014766732345</v>
+      </c>
+      <c r="E9">
+        <v>0.03512580925935208</v>
+      </c>
+      <c r="F9">
+        <v>-0.06455375158481005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.09316492035004342</v>
+        <v>0.09023677235299779</v>
       </c>
       <c r="C10">
-        <v>-0.0231995671865915</v>
+        <v>-0.02498445341867406</v>
       </c>
       <c r="D10">
-        <v>-0.1625938897372782</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.153066218527594</v>
+      </c>
+      <c r="E10">
+        <v>-0.04018776086509299</v>
+      </c>
+      <c r="F10">
+        <v>0.07080101064836494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08708923814931789</v>
+        <v>0.08439130003042969</v>
       </c>
       <c r="C11">
-        <v>-0.01709694504323358</v>
+        <v>-0.01228884161099547</v>
       </c>
       <c r="D11">
-        <v>0.1234737860339621</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1275060419459753</v>
+      </c>
+      <c r="E11">
+        <v>0.06003153701915968</v>
+      </c>
+      <c r="F11">
+        <v>-0.01772539402733283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09198769404547463</v>
+        <v>0.08728302646668951</v>
       </c>
       <c r="C12">
-        <v>-0.01504741650593407</v>
+        <v>-0.009686391663059532</v>
       </c>
       <c r="D12">
-        <v>0.1291282313179943</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.140777477760452</v>
+      </c>
+      <c r="E12">
+        <v>0.06229707213579429</v>
+      </c>
+      <c r="F12">
+        <v>-0.02000917673123585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04415202291019989</v>
+        <v>0.04451011943403349</v>
       </c>
       <c r="C13">
-        <v>-0.007776460727826021</v>
+        <v>-0.004049825950013087</v>
       </c>
       <c r="D13">
-        <v>0.04993853575932947</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05817887681018527</v>
+      </c>
+      <c r="E13">
+        <v>0.002821993886341816</v>
+      </c>
+      <c r="F13">
+        <v>-0.01639648819245277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01900957954919616</v>
+        <v>0.02182188720242686</v>
       </c>
       <c r="C14">
-        <v>-0.01486105737272925</v>
+        <v>-0.01378937916681422</v>
       </c>
       <c r="D14">
-        <v>0.03481475229517286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03811011645999903</v>
+      </c>
+      <c r="E14">
+        <v>0.02817950155180257</v>
+      </c>
+      <c r="F14">
+        <v>-0.02313916611988553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.0337450461720328</v>
+        <v>0.0346677485858957</v>
       </c>
       <c r="C15">
-        <v>-0.00830282936200393</v>
+        <v>-0.006651184675137805</v>
       </c>
       <c r="D15">
-        <v>0.05227968105531399</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.05236645837691447</v>
+      </c>
+      <c r="E15">
+        <v>0.01768207994025145</v>
+      </c>
+      <c r="F15">
+        <v>-0.0299777799682531</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.06820948577702435</v>
+        <v>0.0673330132718522</v>
       </c>
       <c r="C16">
-        <v>-0.005788611003978521</v>
+        <v>-0.001158867534216445</v>
       </c>
       <c r="D16">
-        <v>0.1245617863317957</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1352342056367361</v>
+      </c>
+      <c r="E16">
+        <v>0.07029933131913729</v>
+      </c>
+      <c r="F16">
+        <v>-0.02002358189240083</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.00238925927457255</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.00108041298509562</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002108979110298627</v>
+      </c>
+      <c r="E17">
+        <v>0.005254024087961636</v>
+      </c>
+      <c r="F17">
+        <v>0.00432710047610077</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02972934780371944</v>
+        <v>0.04648048954049407</v>
       </c>
       <c r="C18">
-        <v>0.0004090117876246731</v>
+        <v>-8.387282642068244e-05</v>
       </c>
       <c r="D18">
-        <v>0.02478217913121357</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.02298982876040627</v>
+      </c>
+      <c r="E18">
+        <v>-0.002992992547836402</v>
+      </c>
+      <c r="F18">
+        <v>0.01671379728398296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06189070125561918</v>
+        <v>0.06141308238468797</v>
       </c>
       <c r="C20">
-        <v>-0.004967634305682871</v>
+        <v>-0.002280257095790127</v>
       </c>
       <c r="D20">
-        <v>0.08125828071642606</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.08485868385017278</v>
+      </c>
+      <c r="E20">
+        <v>0.06714320026748143</v>
+      </c>
+      <c r="F20">
+        <v>-0.03613583253025673</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.03940089580816823</v>
+        <v>0.04150949616515921</v>
       </c>
       <c r="C21">
-        <v>-0.009727250585592125</v>
+        <v>-0.007192596951327911</v>
       </c>
       <c r="D21">
-        <v>0.04300317084667387</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.04233875072666402</v>
+      </c>
+      <c r="E21">
+        <v>0.0009908578379724132</v>
+      </c>
+      <c r="F21">
+        <v>0.01410823042189866</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04525548762636725</v>
+        <v>0.04405455265026622</v>
       </c>
       <c r="C22">
-        <v>-0.004541942538971492</v>
+        <v>-0.002540096544291783</v>
       </c>
       <c r="D22">
-        <v>0.001158787760144856</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.01236506527534418</v>
+      </c>
+      <c r="E22">
+        <v>0.03734066907657713</v>
+      </c>
+      <c r="F22">
+        <v>0.1017534189090955</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04526416924160034</v>
+        <v>0.04406197133179405</v>
       </c>
       <c r="C23">
-        <v>-0.004544313455881977</v>
+        <v>-0.002542317450519652</v>
       </c>
       <c r="D23">
-        <v>0.001149910990673186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.01235821922806291</v>
+      </c>
+      <c r="E23">
+        <v>0.03734811937735268</v>
+      </c>
+      <c r="F23">
+        <v>0.1017950416188223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07607481006874939</v>
+        <v>0.07402456139270039</v>
       </c>
       <c r="C24">
-        <v>-0.006825773606213901</v>
+        <v>-0.002373053768862941</v>
       </c>
       <c r="D24">
-        <v>0.1268297186970155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1292261620127487</v>
+      </c>
+      <c r="E24">
+        <v>0.05537733745720996</v>
+      </c>
+      <c r="F24">
+        <v>-0.0280593473324088</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08107086227012636</v>
+        <v>0.07850369448611269</v>
       </c>
       <c r="C25">
-        <v>-0.009408047433407686</v>
+        <v>-0.005268638479350139</v>
       </c>
       <c r="D25">
-        <v>0.1155203012158877</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1180747380764137</v>
+      </c>
+      <c r="E25">
+        <v>0.04449477422627156</v>
+      </c>
+      <c r="F25">
+        <v>-0.02501598797690276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05677795425388501</v>
+        <v>0.06175751095226087</v>
       </c>
       <c r="C26">
-        <v>-0.0190197300183405</v>
+        <v>-0.01634359502274785</v>
       </c>
       <c r="D26">
-        <v>0.05265122171923034</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.05863967584572141</v>
+      </c>
+      <c r="E26">
+        <v>0.03760626781586227</v>
+      </c>
+      <c r="F26">
+        <v>0.00606495406331325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1501530661207318</v>
+        <v>0.1551408978936472</v>
       </c>
       <c r="C28">
-        <v>-0.02749213879966088</v>
+        <v>-0.03108902390041022</v>
       </c>
       <c r="D28">
-        <v>-0.2456345094195553</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2437623600137475</v>
+      </c>
+      <c r="E28">
+        <v>-0.06132759579606497</v>
+      </c>
+      <c r="F28">
+        <v>-0.01804162086722295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02567124597675907</v>
+        <v>0.02782598036660123</v>
       </c>
       <c r="C29">
-        <v>-0.009830726230248214</v>
+        <v>-0.009140763250984537</v>
       </c>
       <c r="D29">
-        <v>0.03485327318120204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03635762949716383</v>
+      </c>
+      <c r="E29">
+        <v>0.01809777276916621</v>
+      </c>
+      <c r="F29">
+        <v>0.01617908817397547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05193124229934926</v>
+        <v>0.05109735115920003</v>
       </c>
       <c r="C30">
-        <v>-0.005885867148518377</v>
+        <v>-0.002398762234710363</v>
       </c>
       <c r="D30">
-        <v>0.07520841145418035</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08082123541209887</v>
+      </c>
+      <c r="E30">
+        <v>0.01813371858429264</v>
+      </c>
+      <c r="F30">
+        <v>-0.1053252598606492</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05144788167412968</v>
+        <v>0.05181760305404202</v>
       </c>
       <c r="C31">
-        <v>-0.01898832405862177</v>
+        <v>-0.01705279789011229</v>
       </c>
       <c r="D31">
-        <v>0.02829707022185447</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03054687945899348</v>
+      </c>
+      <c r="E31">
+        <v>0.03346096937845092</v>
+      </c>
+      <c r="F31">
+        <v>0.009041038244382576</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04421903646493093</v>
+        <v>0.04958268664272426</v>
       </c>
       <c r="C32">
-        <v>-0.001584405043131845</v>
+        <v>0.001060012029969015</v>
       </c>
       <c r="D32">
-        <v>0.03181310405607184</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03573587814000953</v>
+      </c>
+      <c r="E32">
+        <v>0.03532519521200617</v>
+      </c>
+      <c r="F32">
+        <v>0.002507928358612654</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08564726465440547</v>
+        <v>0.08722163533809077</v>
       </c>
       <c r="C33">
-        <v>-0.01330195541812226</v>
+        <v>-0.008208667359512424</v>
       </c>
       <c r="D33">
-        <v>0.09801663030995496</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.108796118288769</v>
+      </c>
+      <c r="E33">
+        <v>0.06012278885573642</v>
+      </c>
+      <c r="F33">
+        <v>-0.02573929864529565</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06395602316577866</v>
+        <v>0.06368532373587459</v>
       </c>
       <c r="C34">
-        <v>-0.01541082374509703</v>
+        <v>-0.01073558402537843</v>
       </c>
       <c r="D34">
-        <v>0.1039391345331988</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1155487144791117</v>
+      </c>
+      <c r="E34">
+        <v>0.04519359007926883</v>
+      </c>
+      <c r="F34">
+        <v>-0.04196262827631109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02734096745131013</v>
+        <v>0.02843160147091525</v>
       </c>
       <c r="C35">
-        <v>-0.005176404254898937</v>
+        <v>-0.004534668079782899</v>
       </c>
       <c r="D35">
-        <v>0.01033301511465122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01337472293246253</v>
+      </c>
+      <c r="E35">
+        <v>0.0201421985158317</v>
+      </c>
+      <c r="F35">
+        <v>0.0005292713818438446</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.0225798657048697</v>
+        <v>0.02713365071617082</v>
       </c>
       <c r="C36">
-        <v>-0.008295794069970322</v>
+        <v>-0.007465369159246418</v>
       </c>
       <c r="D36">
-        <v>0.04169359109329904</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04474139012195328</v>
+      </c>
+      <c r="E36">
+        <v>0.02443891206070117</v>
+      </c>
+      <c r="F36">
+        <v>-0.02065109266434705</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003182475836034651</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0008574095764980516</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003161017528059014</v>
+      </c>
+      <c r="E37">
+        <v>0.001106571712127527</v>
+      </c>
+      <c r="F37">
+        <v>0.001436837262452741</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.100585102974562</v>
+        <v>0.09216897032969103</v>
       </c>
       <c r="C39">
-        <v>-0.02141740793279804</v>
+        <v>-0.01571107675171452</v>
       </c>
       <c r="D39">
-        <v>0.1599200273276247</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1574247294531661</v>
+      </c>
+      <c r="E39">
+        <v>0.07322825547726294</v>
+      </c>
+      <c r="F39">
+        <v>-0.01019713663088034</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.04347587955509929</v>
+        <v>0.04878027623241205</v>
       </c>
       <c r="C40">
-        <v>-0.01201126088364514</v>
+        <v>-0.0104425757438786</v>
       </c>
       <c r="D40">
-        <v>0.03445728789375554</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04098138422898321</v>
+      </c>
+      <c r="E40">
+        <v>0.008649074503257276</v>
+      </c>
+      <c r="F40">
+        <v>0.02078406333774783</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02643882387978333</v>
+        <v>0.02841368596287568</v>
       </c>
       <c r="C41">
-        <v>-0.008499709257422754</v>
+        <v>-0.008010854014171162</v>
       </c>
       <c r="D41">
-        <v>0.01370029749842773</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01525741455553794</v>
+      </c>
+      <c r="E41">
+        <v>0.01323519649912148</v>
+      </c>
+      <c r="F41">
+        <v>0.01047497052233463</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04051094565028514</v>
+        <v>0.0394302649060654</v>
       </c>
       <c r="C43">
-        <v>-0.009184770771454054</v>
+        <v>-0.008318059894936228</v>
       </c>
       <c r="D43">
-        <v>0.02418103034839269</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02454670686527404</v>
+      </c>
+      <c r="E43">
+        <v>0.03134963872255818</v>
+      </c>
+      <c r="F43">
+        <v>0.02175968778740951</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06137353119128174</v>
+        <v>0.06928719919471971</v>
       </c>
       <c r="C44">
-        <v>-0.02202846281932241</v>
+        <v>-0.01888565056715924</v>
       </c>
       <c r="D44">
-        <v>0.07463817958611023</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.08418216040185629</v>
+      </c>
+      <c r="E44">
+        <v>0.07689913615368851</v>
+      </c>
+      <c r="F44">
+        <v>-0.2120238596047387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.000183517761852383</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>-3.773676348943809e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-1.621456410622767e-05</v>
+      </c>
+      <c r="E45">
+        <v>-0.0004315960822791411</v>
+      </c>
+      <c r="F45">
+        <v>8.575836070088903e-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02309849513692768</v>
+        <v>0.02531493531934833</v>
       </c>
       <c r="C46">
-        <v>-0.004998754336310448</v>
+        <v>-0.004287460789999071</v>
       </c>
       <c r="D46">
-        <v>0.01791958914386382</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01995044629279198</v>
+      </c>
+      <c r="E46">
+        <v>0.03652597184120913</v>
+      </c>
+      <c r="F46">
+        <v>0.02202374156834967</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05414748074349711</v>
+        <v>0.0529832325251036</v>
       </c>
       <c r="C47">
-        <v>-0.00746916402073639</v>
+        <v>-0.005811984523576697</v>
       </c>
       <c r="D47">
-        <v>0.01436504402557645</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01614183756100089</v>
+      </c>
+      <c r="E47">
+        <v>0.02700013661373345</v>
+      </c>
+      <c r="F47">
+        <v>0.04226481218660631</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04931544114143663</v>
+        <v>0.05293832955145392</v>
       </c>
       <c r="C48">
-        <v>-0.006314723100935125</v>
+        <v>-0.003896705622778705</v>
       </c>
       <c r="D48">
-        <v>0.05929959810185877</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.0603256383299056</v>
+      </c>
+      <c r="E48">
+        <v>0.009093359139928358</v>
+      </c>
+      <c r="F48">
+        <v>-0.01624318569560043</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1950924411372551</v>
+        <v>0.1974970315326046</v>
       </c>
       <c r="C49">
-        <v>-0.02848901938856097</v>
+        <v>-0.02471396096382932</v>
       </c>
       <c r="D49">
-        <v>-0.01328781502137874</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.007505473476438074</v>
+      </c>
+      <c r="E49">
+        <v>0.01611622744427063</v>
+      </c>
+      <c r="F49">
+        <v>-0.05490410559793513</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04940068336577619</v>
+        <v>0.05221272600264072</v>
       </c>
       <c r="C50">
-        <v>-0.01466645869986884</v>
+        <v>-0.01320418984192684</v>
       </c>
       <c r="D50">
-        <v>0.02698217706763376</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02908568994473776</v>
+      </c>
+      <c r="E50">
+        <v>0.03570504929311481</v>
+      </c>
+      <c r="F50">
+        <v>-0.007981016832224283</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1515991459947945</v>
+        <v>0.1452192707567486</v>
       </c>
       <c r="C52">
-        <v>-0.02561914950063068</v>
+        <v>-0.02158797482524018</v>
       </c>
       <c r="D52">
-        <v>0.04257967744703384</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04543722534261087</v>
+      </c>
+      <c r="E52">
+        <v>0.03889138605127215</v>
+      </c>
+      <c r="F52">
+        <v>-0.03754417851978785</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1749416882599213</v>
+        <v>0.1674878571758689</v>
       </c>
       <c r="C53">
-        <v>-0.02870601868888682</v>
+        <v>-0.02573966979405821</v>
       </c>
       <c r="D53">
-        <v>0.00260287762662514</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.005965923503942059</v>
+      </c>
+      <c r="E53">
+        <v>0.04731955018332951</v>
+      </c>
+      <c r="F53">
+        <v>-0.08272437960334458</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01453258806057271</v>
+        <v>0.01770375847230627</v>
       </c>
       <c r="C54">
-        <v>-0.01194537032385821</v>
+        <v>-0.01116946048316817</v>
       </c>
       <c r="D54">
-        <v>0.03139640964390952</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03106600897785292</v>
+      </c>
+      <c r="E54">
+        <v>0.02163324910914793</v>
+      </c>
+      <c r="F54">
+        <v>0.002570989566938939</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1198046062405412</v>
+        <v>0.1170963838733208</v>
       </c>
       <c r="C55">
-        <v>-0.02489979599173678</v>
+        <v>-0.02236505795054189</v>
       </c>
       <c r="D55">
-        <v>0.005945777715180693</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01388238384611056</v>
+      </c>
+      <c r="E55">
+        <v>0.0465863275918885</v>
+      </c>
+      <c r="F55">
+        <v>-0.02927687461485034</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1806097551828278</v>
+        <v>0.1747247705923723</v>
       </c>
       <c r="C56">
-        <v>-0.02695479672753819</v>
+        <v>-0.02424250016196058</v>
       </c>
       <c r="D56">
-        <v>-0.005598041681758498</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001527487318816611</v>
+      </c>
+      <c r="E56">
+        <v>0.04363096988562405</v>
+      </c>
+      <c r="F56">
+        <v>-0.0420928478777112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04483241454940354</v>
+        <v>0.04385384019806179</v>
       </c>
       <c r="C58">
-        <v>-0.004032986846587102</v>
+        <v>-0.000270779628757891</v>
       </c>
       <c r="D58">
-        <v>0.07861198488699506</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.08590357890825058</v>
+      </c>
+      <c r="E58">
+        <v>0.04599232694356251</v>
+      </c>
+      <c r="F58">
+        <v>0.04458847820359396</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1697271209633545</v>
+        <v>0.1749283490795429</v>
       </c>
       <c r="C59">
-        <v>-0.02717699609345374</v>
+        <v>-0.03016990735368466</v>
       </c>
       <c r="D59">
-        <v>-0.2127843882416545</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.211225625232296</v>
+      </c>
+      <c r="E59">
+        <v>-0.05853469766569867</v>
+      </c>
+      <c r="F59">
+        <v>0.06429823348940074</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2243578863702618</v>
+        <v>0.2193675177077544</v>
       </c>
       <c r="C60">
-        <v>-0.007819523996406208</v>
+        <v>-0.003496678850390309</v>
       </c>
       <c r="D60">
-        <v>0.01959088200318397</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01976977511052702</v>
+      </c>
+      <c r="E60">
+        <v>-0.02154381601980138</v>
+      </c>
+      <c r="F60">
+        <v>0.01427743464700885</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.07394175685586443</v>
+        <v>0.06988994604491511</v>
       </c>
       <c r="C61">
-        <v>-0.01529224110056664</v>
+        <v>-0.01065784983338336</v>
       </c>
       <c r="D61">
-        <v>0.1175740148114791</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1198628965674437</v>
+      </c>
+      <c r="E61">
+        <v>0.04636699439379471</v>
+      </c>
+      <c r="F61">
+        <v>0.0009748352799329072</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.170932942839525</v>
+        <v>0.1668731089573477</v>
       </c>
       <c r="C62">
-        <v>-0.02934253562159832</v>
+        <v>-0.02626472943224863</v>
       </c>
       <c r="D62">
-        <v>0.001508034854691778</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.006853901913716317</v>
+      </c>
+      <c r="E62">
+        <v>0.04839678238638474</v>
+      </c>
+      <c r="F62">
+        <v>-0.02426795190992325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04237164189501342</v>
+        <v>0.0477672912038968</v>
       </c>
       <c r="C63">
-        <v>-0.005814645957721977</v>
+        <v>-0.003502626583745707</v>
       </c>
       <c r="D63">
-        <v>0.06421331704331761</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07196937109514191</v>
+      </c>
+      <c r="E63">
+        <v>0.03328875178517701</v>
+      </c>
+      <c r="F63">
+        <v>0.002164034224057528</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.11401402714828</v>
+        <v>0.1112034581655694</v>
       </c>
       <c r="C64">
-        <v>-0.01942684183059099</v>
+        <v>-0.01564290187823443</v>
       </c>
       <c r="D64">
-        <v>0.04610477810379517</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04994557865543045</v>
+      </c>
+      <c r="E64">
+        <v>0.03449304390686587</v>
+      </c>
+      <c r="F64">
+        <v>-0.02183773598745058</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1506626604586967</v>
+        <v>0.1562849577682908</v>
       </c>
       <c r="C65">
-        <v>-0.04275684909980576</v>
+        <v>-0.04134108577118904</v>
       </c>
       <c r="D65">
-        <v>-0.04831479284524674</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03716312265840794</v>
+      </c>
+      <c r="E65">
+        <v>0.01574561566736929</v>
+      </c>
+      <c r="F65">
+        <v>-0.0511017409473872</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1221255999951605</v>
+        <v>0.1115467185487074</v>
       </c>
       <c r="C66">
-        <v>-0.02019835763246232</v>
+        <v>-0.01399594332013189</v>
       </c>
       <c r="D66">
-        <v>0.1407155394587075</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1438172490937435</v>
+      </c>
+      <c r="E66">
+        <v>0.06803846710818896</v>
+      </c>
+      <c r="F66">
+        <v>-0.01357423924972875</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.0599834858724385</v>
+        <v>0.05283388932699764</v>
       </c>
       <c r="C67">
-        <v>-0.006384738500658395</v>
+        <v>-0.00396656069469286</v>
       </c>
       <c r="D67">
-        <v>0.05420787053979594</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05687465124023131</v>
+      </c>
+      <c r="E67">
+        <v>0.02241233006244145</v>
+      </c>
+      <c r="F67">
+        <v>0.0848703193216095</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1202758874534536</v>
+        <v>0.1266051058525839</v>
       </c>
       <c r="C68">
-        <v>-0.03562553037635702</v>
+        <v>-0.04039478995973423</v>
       </c>
       <c r="D68">
-        <v>-0.2504179944419846</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.249840538664546</v>
+      </c>
+      <c r="E68">
+        <v>-0.09016503197139678</v>
+      </c>
+      <c r="F68">
+        <v>-0.02916414908718052</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03955770833524967</v>
+        <v>0.03901219013364757</v>
       </c>
       <c r="C69">
-        <v>-0.003470248241043505</v>
+        <v>-0.002481367600415731</v>
       </c>
       <c r="D69">
-        <v>0.009574637457707934</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01007586406221733</v>
+      </c>
+      <c r="E69">
+        <v>0.03214905397826868</v>
+      </c>
+      <c r="F69">
+        <v>0.01932914934600134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06977054960909194</v>
+        <v>0.07077324784657672</v>
       </c>
       <c r="C70">
-        <v>0.02273118190616425</v>
+        <v>0.02420601808405292</v>
       </c>
       <c r="D70">
-        <v>0.03995781095533488</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.03790959984086741</v>
+      </c>
+      <c r="E70">
+        <v>-0.03740928542504555</v>
+      </c>
+      <c r="F70">
+        <v>0.3619593001840646</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1403917025775198</v>
+        <v>0.1476872257958779</v>
       </c>
       <c r="C71">
-        <v>-0.04144300311823858</v>
+        <v>-0.0460073808203874</v>
       </c>
       <c r="D71">
-        <v>-0.2636849153449211</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2588280128716663</v>
+      </c>
+      <c r="E71">
+        <v>-0.09896561339555517</v>
+      </c>
+      <c r="F71">
+        <v>-0.02943835523303103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1385271526579924</v>
+        <v>0.1446860369584508</v>
       </c>
       <c r="C72">
-        <v>-0.03331890499587323</v>
+        <v>-0.03207500307782708</v>
       </c>
       <c r="D72">
-        <v>0.006905732385368266</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004171351066125404</v>
+      </c>
+      <c r="E72">
+        <v>0.05016834773121556</v>
+      </c>
+      <c r="F72">
+        <v>-0.03064677792475623</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.1953478620503185</v>
+        <v>0.2000946072613291</v>
       </c>
       <c r="C73">
-        <v>-0.02178683247271674</v>
+        <v>-0.01679696651173166</v>
       </c>
       <c r="D73">
-        <v>0.00645899328002907</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01368028164839082</v>
+      </c>
+      <c r="E73">
+        <v>0.06117166503586195</v>
+      </c>
+      <c r="F73">
+        <v>-0.01298666116064651</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08801138905783253</v>
+        <v>0.08808093356241722</v>
       </c>
       <c r="C74">
-        <v>-0.01662308754667752</v>
+        <v>-0.0146009198671858</v>
       </c>
       <c r="D74">
-        <v>0.01182817954706947</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01730288557866525</v>
+      </c>
+      <c r="E74">
+        <v>0.05148853530349039</v>
+      </c>
+      <c r="F74">
+        <v>-0.04971933563565734</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1292084427317779</v>
+        <v>0.1217365940086988</v>
       </c>
       <c r="C75">
-        <v>-0.03496524336579979</v>
+        <v>-0.03161196655581461</v>
       </c>
       <c r="D75">
-        <v>0.02640390716500308</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03169403360832224</v>
+      </c>
+      <c r="E75">
+        <v>0.06343851072842407</v>
+      </c>
+      <c r="F75">
+        <v>-0.01248204939768753</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07831758013153561</v>
+        <v>0.09155647831313168</v>
       </c>
       <c r="C77">
-        <v>-0.01453830296338213</v>
+        <v>-0.01099894336085785</v>
       </c>
       <c r="D77">
-        <v>0.114087633856826</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1145888395673419</v>
+      </c>
+      <c r="E77">
+        <v>0.05008760109552046</v>
+      </c>
+      <c r="F77">
+        <v>-0.03982854294899744</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09556052996207644</v>
+        <v>0.09743121762901165</v>
       </c>
       <c r="C78">
-        <v>-0.04330267342177443</v>
+        <v>-0.04034370717175331</v>
       </c>
       <c r="D78">
-        <v>0.1221114693050885</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1188550802391534</v>
+      </c>
+      <c r="E78">
+        <v>0.07493746436524902</v>
+      </c>
+      <c r="F78">
+        <v>-0.03758412221897919</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1688002023908163</v>
+        <v>0.1643654159295679</v>
       </c>
       <c r="C79">
-        <v>-0.03305043007402672</v>
+        <v>-0.02945181496014933</v>
       </c>
       <c r="D79">
-        <v>0.01190886996997571</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01780209290548951</v>
+      </c>
+      <c r="E79">
+        <v>0.05159166421666365</v>
+      </c>
+      <c r="F79">
+        <v>-0.007541603252159418</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07974146214669688</v>
+        <v>0.0778103124854588</v>
       </c>
       <c r="C80">
-        <v>-0.004142884576660864</v>
+        <v>-0.001753149031165779</v>
       </c>
       <c r="D80">
-        <v>0.04626807629793232</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04870343137912639</v>
+      </c>
+      <c r="E80">
+        <v>0.0500571570783644</v>
+      </c>
+      <c r="F80">
+        <v>0.04745853181183417</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.117631917205282</v>
+        <v>0.1114345805200565</v>
       </c>
       <c r="C81">
-        <v>-0.03694495815351302</v>
+        <v>-0.03502403387891143</v>
       </c>
       <c r="D81">
-        <v>0.00399470778007462</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.009791056351794719</v>
+      </c>
+      <c r="E81">
+        <v>0.05931568563028992</v>
+      </c>
+      <c r="F81">
+        <v>-0.0045392781485032</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1629957773266496</v>
+        <v>0.1612020654727907</v>
       </c>
       <c r="C82">
-        <v>-0.03281958158812486</v>
+        <v>-0.02992485383887352</v>
       </c>
       <c r="D82">
-        <v>0.00109154315204702</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.002401991079254044</v>
+      </c>
+      <c r="E82">
+        <v>0.04434623316403687</v>
+      </c>
+      <c r="F82">
+        <v>-0.08284472082184031</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05776028139551428</v>
+        <v>0.05310709375870189</v>
       </c>
       <c r="C83">
-        <v>-0.006605816914419009</v>
+        <v>-0.004393383642995539</v>
       </c>
       <c r="D83">
-        <v>0.04437838386523413</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04396750991394328</v>
+      </c>
+      <c r="E83">
+        <v>0.009134483179276901</v>
+      </c>
+      <c r="F83">
+        <v>0.02246893417087327</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05563529576276867</v>
+        <v>0.05212206108311233</v>
       </c>
       <c r="C84">
-        <v>-0.01350302909385311</v>
+        <v>-0.010908710068056</v>
       </c>
       <c r="D84">
-        <v>0.07323230336790802</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07413668943847758</v>
+      </c>
+      <c r="E84">
+        <v>0.02163227945986019</v>
+      </c>
+      <c r="F84">
+        <v>-0.00617150168882272</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1398562448183645</v>
+        <v>0.1343293779853036</v>
       </c>
       <c r="C85">
-        <v>-0.0360859059706238</v>
+        <v>-0.03329661093844601</v>
       </c>
       <c r="D85">
-        <v>0.007700591123537374</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01210890662302166</v>
+      </c>
+      <c r="E85">
+        <v>0.05140962076507322</v>
+      </c>
+      <c r="F85">
+        <v>-0.05420587218722484</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.081063444096291</v>
+        <v>0.07991267199730046</v>
       </c>
       <c r="C86">
-        <v>0.005168005376917963</v>
+        <v>0.007206226228467576</v>
       </c>
       <c r="D86">
-        <v>0.02980418954405411</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05513470937145432</v>
+      </c>
+      <c r="E86">
+        <v>0.0642306477003517</v>
+      </c>
+      <c r="F86">
+        <v>0.8103719603248016</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.08921811214404803</v>
+        <v>0.08912015840795849</v>
       </c>
       <c r="C87">
-        <v>-0.02690411381233901</v>
+        <v>-0.02235661082619765</v>
       </c>
       <c r="D87">
-        <v>0.0847434756698183</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08782533311618677</v>
+      </c>
+      <c r="E87">
+        <v>-0.06032067194543194</v>
+      </c>
+      <c r="F87">
+        <v>-0.0799943483854995</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06226684091547908</v>
+        <v>0.06089989404458891</v>
       </c>
       <c r="C88">
-        <v>-0.006746814040175188</v>
+        <v>-0.004387980419823622</v>
       </c>
       <c r="D88">
-        <v>0.05848598956216872</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.05674553662427952</v>
+      </c>
+      <c r="E88">
+        <v>0.03537953612298781</v>
+      </c>
+      <c r="F88">
+        <v>-0.003727620056525623</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1287024068641557</v>
+        <v>0.1339853551468971</v>
       </c>
       <c r="C89">
-        <v>-0.01571672677726288</v>
+        <v>-0.02033580500799597</v>
       </c>
       <c r="D89">
-        <v>-0.2263368970598547</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2322132451905254</v>
+      </c>
+      <c r="E89">
+        <v>-0.09384150214912347</v>
+      </c>
+      <c r="F89">
+        <v>-0.02086025419163146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.151664505623891</v>
+        <v>0.1628066988004197</v>
       </c>
       <c r="C90">
-        <v>-0.03801431282562516</v>
+        <v>-0.04326184818346648</v>
       </c>
       <c r="D90">
-        <v>-0.2518111845456275</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2558615501867085</v>
+      </c>
+      <c r="E90">
+        <v>-0.11844793259413</v>
+      </c>
+      <c r="F90">
+        <v>-0.02435294807089444</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1258997356508889</v>
+        <v>0.1211725904747298</v>
       </c>
       <c r="C91">
-        <v>-0.02684079821935885</v>
+        <v>-0.0252242134936204</v>
       </c>
       <c r="D91">
-        <v>-0.01982947677641733</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01499610015171778</v>
+      </c>
+      <c r="E91">
+        <v>0.05918671329415218</v>
+      </c>
+      <c r="F91">
+        <v>0.02472486717638738</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1520034977261873</v>
+        <v>0.1554864758456452</v>
       </c>
       <c r="C92">
-        <v>-0.02887645004645115</v>
+        <v>-0.0336283406619178</v>
       </c>
       <c r="D92">
-        <v>-0.2789078522733621</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2831168115480564</v>
+      </c>
+      <c r="E92">
+        <v>-0.1068327403189011</v>
+      </c>
+      <c r="F92">
+        <v>-0.01220542367513525</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1556517550132809</v>
+        <v>0.1650941130390003</v>
       </c>
       <c r="C93">
-        <v>-0.03372696749707384</v>
+        <v>-0.03782284788829089</v>
       </c>
       <c r="D93">
-        <v>-0.2452919172876749</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2497062410773717</v>
+      </c>
+      <c r="E93">
+        <v>-0.07056728734750704</v>
+      </c>
+      <c r="F93">
+        <v>-0.02101554882402248</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1283812337435235</v>
+        <v>0.1211781569317528</v>
       </c>
       <c r="C94">
-        <v>-0.03103073672879193</v>
+        <v>-0.02728201374535155</v>
       </c>
       <c r="D94">
-        <v>0.03989143330509914</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04381598907575684</v>
+      </c>
+      <c r="E94">
+        <v>0.06652279666218212</v>
+      </c>
+      <c r="F94">
+        <v>-0.01566847722694412</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1260391795366923</v>
+        <v>0.1286041344851779</v>
       </c>
       <c r="C95">
-        <v>-0.01256889314310821</v>
+        <v>-0.007434561265086696</v>
       </c>
       <c r="D95">
-        <v>0.09540661258884857</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1061559157512932</v>
+      </c>
+      <c r="E95">
+        <v>0.06648146186237053</v>
+      </c>
+      <c r="F95">
+        <v>0.02167593301484673</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1609099076124754</v>
+        <v>0.1449270216179096</v>
       </c>
       <c r="C96">
-        <v>0.9810268317659705</v>
+        <v>0.9825182681191186</v>
       </c>
       <c r="D96">
-        <v>-0.03730049906305744</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05733455166838224</v>
+      </c>
+      <c r="E96">
+        <v>0.05128243895159447</v>
+      </c>
+      <c r="F96">
+        <v>-0.0433133432146007</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1904305221446587</v>
+        <v>0.1940192670013354</v>
       </c>
       <c r="C97">
-        <v>-0.004289020624726908</v>
+        <v>-0.0007528651360284888</v>
       </c>
       <c r="D97">
-        <v>-0.02164129978901023</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.02639967158054383</v>
+      </c>
+      <c r="E97">
+        <v>0.01869635504962987</v>
+      </c>
+      <c r="F97">
+        <v>0.1789750089843823</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1940283953214477</v>
+        <v>0.2010305980337919</v>
       </c>
       <c r="C98">
-        <v>-0.01667832840047008</v>
+        <v>-0.01160061032267282</v>
       </c>
       <c r="D98">
-        <v>0.0132604017984461</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01443379168935903</v>
+      </c>
+      <c r="E98">
+        <v>-0.1107403012340693</v>
+      </c>
+      <c r="F98">
+        <v>0.08443955340957619</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05764251143816553</v>
+        <v>0.0573770684660343</v>
       </c>
       <c r="C99">
-        <v>-4.923817942230134e-06</v>
+        <v>0.002115178220936051</v>
       </c>
       <c r="D99">
-        <v>0.04381600322089615</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.04911683765640158</v>
+      </c>
+      <c r="E99">
+        <v>0.03160483238279955</v>
+      </c>
+      <c r="F99">
+        <v>0.002781842145535023</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1436717521629605</v>
+        <v>0.1331621581097566</v>
       </c>
       <c r="C100">
-        <v>0.03500679844690142</v>
+        <v>0.04425403203051861</v>
       </c>
       <c r="D100">
-        <v>0.4222989131526341</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3802584855272938</v>
+      </c>
+      <c r="E100">
+        <v>-0.8826214630590935</v>
+      </c>
+      <c r="F100">
+        <v>-0.007153987811589858</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02568291072865866</v>
+        <v>0.02788752529608872</v>
       </c>
       <c r="C101">
-        <v>-0.009844755880301195</v>
+        <v>-0.009174330443381633</v>
       </c>
       <c r="D101">
-        <v>0.03436697976716519</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03588972748888997</v>
+      </c>
+      <c r="E101">
+        <v>0.0174967887857916</v>
+      </c>
+      <c r="F101">
+        <v>0.01867580921654935</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
